--- a/test/模板_经目.xlsx
+++ b/test/模板_经目.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="60" windowWidth="24400" windowHeight="15360"/>
@@ -55,93 +55,94 @@
     <t>HUNZ1061</t>
   </si>
   <si>
+    <t>光讃般若波羅蜜經</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总卷数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ0248</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ0528</t>
+  </si>
+  <si>
+    <t>QL0528</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维要略法2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>律</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维要略法3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维要略法4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL0529</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ0529</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>二經同卷第一，卷首經文前有“此經重譯二卷”字，卷末應為257頁</t>
-  </si>
-  <si>
-    <t>光讃般若波羅蜜經</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙泉编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总卷数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>经号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>经名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始册</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束册</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQ0248</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQ0528</t>
-  </si>
-  <si>
-    <t>QL0528</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>思维要略法2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>律</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>思维要略法3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>论</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>思维要略法4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>QL0529</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQ0529</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -209,12 +210,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -234,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,14 +331,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,16 +344,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,7 +368,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -383,11 +381,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -746,7 +747,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -758,191 +759,191 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>31</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>181</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>181</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>29</v>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>181</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>181</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>154</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>154</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>154</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>154</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="G7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17">
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16">
         <v>10</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>155</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>155</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
